--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3892388.312061814</v>
+        <v>3890011.685114448</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
-        <v>70.7061092061242</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>105.5027752869399</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>188.4649415276189</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>108.0165900216656</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>216.2092575368546</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>13.18609391401996</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>196.401796148359</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>84.77350972403201</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>196.6997841156768</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>50.98074812542785</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>47.65883542934953</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141626</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206855</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877907</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576141</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444113</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183041</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.276945881932</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,16 +4331,16 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
@@ -4373,7 +4373,7 @@
         <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460538</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495378</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1083.708454779459</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>1083.708454779459</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>1083.708454779459</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>1083.708454779459</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>1083.708454779459</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1083.708454779459</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560017</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2365.710580560017</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2076.592243063854</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1821.907754857967</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1532.490584821007</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>1304.501033922989</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>1083.708454779459</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1957.346298904866</v>
+        <v>603.6036480119269</v>
       </c>
       <c r="C5" t="n">
-        <v>1588.383781964454</v>
+        <v>494.4959813233758</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>844.3298307594591</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345445</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362816</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872904</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.47031392356</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230815</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2343.946138968987</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>2343.946138968987</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X5" t="n">
-        <v>2343.946138968987</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y5" t="n">
-        <v>2343.946138968987</v>
+        <v>990.2034880760486</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,25 +4641,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380239</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694955</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906388</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312189</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329316</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.060467399387</v>
+        <v>673.0360657270447</v>
       </c>
       <c r="W7" t="n">
-        <v>1148.643297362426</v>
+        <v>383.6188956900841</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644086</v>
+        <v>383.6188956900841</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208785</v>
+        <v>383.6188956900841</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>884.1849331278579</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>884.1849331278579</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6852901911619</v>
+        <v>525.9192345211075</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331012</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800306</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800306</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800306</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362816</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816078</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872907</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230815</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400153</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400153</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400153</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400153</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400153</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400153</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1270.78477319198</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500112</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310611</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625325</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217523</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483065</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659134</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312189</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1584.950414897297</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1584.950414897297</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2072.35525930079</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2495.978408795858</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5294,22 +5294,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,64 +5501,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,43 +5759,43 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,46 +6227,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745235</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,13 +6473,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6926,43 +6926,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362662</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.834428639718</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7652,13 +7652,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878365</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154995</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>30.3692565058945</v>
       </c>
       <c r="N9" t="n">
-        <v>224.3355197601786</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039155</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154995</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077901</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624252</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667974</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>631638.054409878</v>
+        <v>631638.0544098779</v>
       </c>
     </row>
     <row r="12">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977558</v>
@@ -26347,13 +26347,13 @@
         <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="O2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245463</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.723256517081232e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099823</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289262</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.312454884743382e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316251</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316251</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707345</v>
+        <v>6897.424496707321</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.424496707237</v>
       </c>
       <c r="H4" t="n">
+        <v>6897.424496707425</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.424496707383</v>
       </c>
-      <c r="I4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707452</v>
-      </c>
       <c r="K4" t="n">
+        <v>6897.424496707341</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707426</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707466</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6897.424496707432</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707369</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-539083.5572297128</v>
+        <v>-539083.557229713</v>
       </c>
       <c r="C6" t="n">
-        <v>575668.226346207</v>
+        <v>575668.2263462067</v>
       </c>
       <c r="D6" t="n">
-        <v>575668.2263462064</v>
+        <v>575668.2263462071</v>
       </c>
       <c r="E6" t="n">
-        <v>171462.5387525951</v>
+        <v>171427.8008271599</v>
       </c>
       <c r="F6" t="n">
-        <v>678947.980377141</v>
+        <v>678913.2424517055</v>
       </c>
       <c r="G6" t="n">
-        <v>678947.9803771412</v>
+        <v>678913.2424517057</v>
       </c>
       <c r="H6" t="n">
-        <v>678947.9803771413</v>
+        <v>678913.2424517059</v>
       </c>
       <c r="I6" t="n">
-        <v>678947.9803771413</v>
+        <v>678913.2424517052</v>
       </c>
       <c r="J6" t="n">
-        <v>511342.8025671589</v>
+        <v>511308.0646417232</v>
       </c>
       <c r="K6" t="n">
-        <v>678947.9803771414</v>
+        <v>678913.2424517055</v>
       </c>
       <c r="L6" t="n">
-        <v>678947.9803771414</v>
+        <v>678913.2424517059</v>
       </c>
       <c r="M6" t="n">
-        <v>546340.6866482145</v>
+        <v>546305.9487227794</v>
       </c>
       <c r="N6" t="n">
-        <v>678947.9803771414</v>
+        <v>678913.2424517059</v>
       </c>
       <c r="O6" t="n">
-        <v>678947.9803771413</v>
+        <v>678913.2424517055</v>
       </c>
       <c r="P6" t="n">
-        <v>678947.9803771414</v>
+        <v>678913.2424517054</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26771,7 +26771,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26790,19 +26790,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000383</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
-        <v>294.5667825648833</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>41.74873386818894</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>30.11971182447584</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>257.2563017493419</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27673,16 +27673,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>111.5430009332803</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>166.6458862679173</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>55.73584717546899</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>297.1568603482298</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247055</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>173.0313165627923</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>169.7679478717841</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>178.0508199596876</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-2.508117851338566e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2.025899448199198e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.444267011014745e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,28 +33032,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33740,31 +33740,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.948695672726</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>616.9033572954403</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.4905264542655</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>418.422987301597</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637946</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313211</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928737</v>
+        <v>584.5244463807089</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637946</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091734</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434847</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820402</v>
+        <v>397.300588787935</v>
       </c>
       <c r="N9" t="n">
-        <v>615.5326193530523</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000383</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507077</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>485.561645212107</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709321</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
